--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nikos\Projects\bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE9D6B-645F-43D9-A32D-9DB253702829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649435C7-1BCD-4732-A4C5-EFBED7C1052F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2475" windowWidth="21600" windowHeight="13005" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Εσοδα" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <sheetPr codeName="Φύλλο1"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
